--- a/data/evaluation/evaluation_Center_Spring_Cabbage.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Cabbage.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3965.878663003662</v>
+        <v>4012.032509157509</v>
       </c>
       <c r="C3" t="n">
-        <v>26492130.11432169</v>
+        <v>26602899.34509092</v>
       </c>
       <c r="D3" t="n">
-        <v>5147.050622863708</v>
+        <v>5157.799855082681</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1071400655856106</v>
+        <v>0.1034068282923859</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4397.666509288789</v>
+        <v>4479.127911928883</v>
       </c>
       <c r="C4" t="n">
-        <v>28352984.10890954</v>
+        <v>29448795.6186142</v>
       </c>
       <c r="D4" t="n">
-        <v>5324.752023231649</v>
+        <v>5426.674452978932</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04442400733009633</v>
+        <v>0.007492050991994681</v>
       </c>
     </row>
     <row r="5">
